--- a/Billing System User Files/data.xlsx
+++ b/Billing System User Files/data.xlsx
@@ -1564,10 +1564,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B03CB4-D5C9-4BEF-A5A9-446A1FC04568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{C3B03CB4-D5C9-4BEF-A5A9-446A1FC04568}">
   <dimension ref="A1:G332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1581,7 +1581,7 @@
     <col min="7" max="7" width="14.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="1">
       <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="2">
       <c r="A2" s="1">
         <v>3176</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="3">
       <c r="A3" s="1">
         <v>3648</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="4">
       <c r="A4" s="1">
         <v>3252</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="5">
       <c r="A5" s="1">
         <v>3229</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="6">
       <c r="A6" s="1">
         <v>3286</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="7">
       <c r="A7" s="1">
         <v>3238</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="8">
       <c r="A8" s="1">
         <v>3223</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="9">
       <c r="A9" s="1">
         <v>3169</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="10">
       <c r="A10" s="1">
         <v>3203</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="11">
       <c r="A11" s="1">
         <v>3319</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="12">
       <c r="A12" s="1">
         <v>3215</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="13">
       <c r="A13" s="1">
         <v>3240</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="14">
       <c r="A14" s="1">
         <v>3253</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="15">
       <c r="A15" s="1">
         <v>3294</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="16">
       <c r="A16" s="1">
         <v>3233</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="17">
       <c r="A17" s="1">
         <v>3241</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="18">
       <c r="A18" s="1">
         <v>3195</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="19">
       <c r="A19" s="1">
         <v>3308</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="20">
       <c r="A20" s="1">
         <v>3364</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="21">
       <c r="A21" s="1">
         <v>3216</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="22">
       <c r="A22" s="1">
         <v>3321</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="23">
       <c r="A23" s="1">
         <v>3672</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="24">
       <c r="A24" s="1">
         <v>3175</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="25">
       <c r="A25" s="1">
         <v>3228</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="26">
       <c r="A26" s="1">
         <v>3272</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="27">
       <c r="A27" s="1">
         <v>3290</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="28">
       <c r="A28" s="1">
         <v>3151</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="29">
       <c r="A29" s="1">
         <v>3576</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="30">
       <c r="A30" s="1">
         <v>3218</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="31">
       <c r="A31" s="1">
         <v>3163</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="32">
       <c r="A32" s="1">
         <v>3239</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="33">
       <c r="A33" s="1">
         <v>3275</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="34">
       <c r="A34" s="1">
         <v>3160</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="35">
       <c r="A35" s="1">
         <v>3235</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="36">
       <c r="A36" s="1">
         <v>3356</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="37">
       <c r="A37" s="1">
         <v>3248</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="38">
       <c r="A38" s="1">
         <v>3142</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="39">
       <c r="A39" s="1">
         <v>3259</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="40">
       <c r="A40" s="1">
         <v>3251</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="41">
       <c r="A41" s="1">
         <v>3257</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="42">
       <c r="A42" s="1">
         <v>3260</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="43">
       <c r="A43" s="1">
         <v>3179</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="44">
       <c r="A44" s="1">
         <v>3247</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="45">
       <c r="A45" s="1">
         <v>3207</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="46">
       <c r="A46" s="1">
         <v>3224</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="47">
       <c r="A47" s="1">
         <v>3333</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="48">
       <c r="A48" s="1">
         <v>3279</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="49">
       <c r="A49" s="1">
         <v>3487</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="50">
       <c r="A50" s="1">
         <v>3174</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="51">
       <c r="A51" s="1">
         <v>3268</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="52">
       <c r="A52" s="1">
         <v>3280</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="53">
       <c r="A53" s="1">
         <v>3237</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="54">
       <c r="A54" s="1">
         <v>3599</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="55">
       <c r="A55" s="1">
         <v>3274</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="56">
       <c r="A56" s="1">
         <v>3523</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="57">
       <c r="A57" s="1">
         <v>3309</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="58">
       <c r="A58" s="1">
         <v>3304</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="59">
       <c r="A59" s="1">
         <v>3135</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="60">
       <c r="A60" s="1">
         <v>3255</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="61">
       <c r="A61" s="1">
         <v>3244</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="62">
       <c r="A62" s="1">
         <v>3242</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="63">
       <c r="A63" s="1">
         <v>3227</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="64">
       <c r="A64" s="1">
         <v>3214</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="65">
       <c r="A65" s="1">
         <v>3273</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="66">
       <c r="A66" s="1">
         <v>3258</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="67">
       <c r="A67" s="1">
         <v>3209</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="68">
       <c r="A68" s="1">
         <v>3311</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="69">
       <c r="A69" s="1">
         <v>3323</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="70">
       <c r="A70" s="1">
         <v>3157</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="71">
       <c r="A71" s="1">
         <v>3254</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="72">
       <c r="A72" s="1">
         <v>3263</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="73">
       <c r="A73" s="1">
         <v>3182</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="74">
       <c r="A74" s="1">
         <v>3346</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="75">
       <c r="A75" s="1">
         <v>3269</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="76">
       <c r="A76" s="1">
         <v>3300</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="77">
       <c r="A77" s="1">
         <v>3220</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="78">
       <c r="A78" s="1">
         <v>3302</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="79">
       <c r="A79" s="1">
         <v>3137</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="80">
       <c r="A80" s="1">
         <v>3185</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="81">
       <c r="A81" s="1">
         <v>3206</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="82">
       <c r="A82" s="1">
         <v>3155</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="83">
       <c r="A83" s="1">
         <v>3291</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="84">
       <c r="A84" s="1">
         <v>3277</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="85">
       <c r="A85" s="1">
         <v>3183</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="86">
       <c r="A86" s="1">
         <v>3165</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="87">
       <c r="A87" s="1">
         <v>3536</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="88">
       <c r="A88" s="1">
         <v>3187</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="89">
       <c r="A89" s="1">
         <v>3326</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="90">
       <c r="A90" s="1">
         <v>3171</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="91">
       <c r="A91" s="1">
         <v>3271</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="92">
       <c r="A92" s="1">
         <v>3261</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="93">
       <c r="A93" s="1">
         <v>3178</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="94">
       <c r="A94" s="1">
         <v>3315</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="95">
       <c r="A95" s="1">
         <v>3210</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="96">
       <c r="A96" s="1">
         <v>3208</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="97">
       <c r="A97" s="1">
         <v>3170</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="98">
       <c r="A98" s="1">
         <v>3194</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="99">
       <c r="A99" s="1">
         <v>3295</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="100">
       <c r="A100" s="1">
         <v>3270</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="101">
       <c r="A101" s="1">
         <v>3222</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="102">
       <c r="A102" s="1">
         <v>3706</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="103">
       <c r="A103" s="1">
         <v>3193</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="104">
       <c r="A104" s="1">
         <v>3267</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="105">
       <c r="A105" s="1">
         <v>3256</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="106">
       <c r="A106" s="1">
         <v>2987</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="107">
       <c r="A107" s="1">
         <v>2957</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="108">
       <c r="A108" s="1">
         <v>2958</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="109">
       <c r="A109" s="1">
         <v>3013</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="110">
       <c r="A110" s="1">
         <v>2992</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="111">
       <c r="A111" s="1">
         <v>2967</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="112">
       <c r="A112" s="1">
         <v>3547</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="113">
       <c r="A113" s="1">
         <v>3575</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="114">
       <c r="A114" s="1">
         <v>2933</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="115">
       <c r="A115" s="1">
         <v>2988</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="116">
       <c r="A116" s="1">
         <v>3649</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="117">
       <c r="A117" s="1">
         <v>2876</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="118">
       <c r="A118" s="1">
         <v>2946</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="119">
       <c r="A119" s="1">
         <v>3037</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="120">
       <c r="A120" s="1">
         <v>2878</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="121">
       <c r="A121" s="1">
         <v>3010</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="122">
       <c r="A122" s="1">
         <v>2935</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="123">
       <c r="A123" s="1">
         <v>2974</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="124">
       <c r="A124" s="1">
         <v>3064</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="125">
       <c r="A125" s="1">
         <v>2980</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="126">
       <c r="A126" s="1">
         <v>3625</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="127">
       <c r="A127" s="1">
         <v>3351</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="128">
       <c r="A128" s="1">
         <v>2942</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="129">
       <c r="A129" s="1">
         <v>2954</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="130">
       <c r="A130" s="1">
         <v>3020</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="131">
       <c r="A131" s="1">
         <v>2939</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="132">
       <c r="A132" s="1">
         <v>2955</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="133">
       <c r="A133" s="1">
         <v>2952</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="134">
       <c r="A134" s="1">
         <v>2973</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="135">
       <c r="A135" s="1">
         <v>3497</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="136">
       <c r="A136" s="1">
         <v>2970</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="137">
       <c r="A137" s="1">
         <v>2949</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="138">
       <c r="A138" s="1">
         <v>3008</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="139">
       <c r="A139" s="1">
         <v>3089</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="140">
       <c r="A140" s="1">
         <v>3025</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="141">
       <c r="A141" s="1">
         <v>3033</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="142">
       <c r="A142" s="1">
         <v>3602</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="143">
       <c r="A143" s="1">
         <v>2990</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="144">
       <c r="A144" s="1">
         <v>3078</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="145">
       <c r="A145" s="1">
         <v>3044</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="146">
       <c r="A146" s="1">
         <v>2930</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="147">
       <c r="A147" s="1">
         <v>3112</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="148">
       <c r="A148" s="1">
         <v>2986</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="149">
       <c r="A149" s="1">
         <v>3032</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="150">
       <c r="A150" s="1">
         <v>3059</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="151">
       <c r="A151" s="1">
         <v>2985</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="152">
       <c r="A152" s="1">
         <v>3023</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="153">
       <c r="A153" s="1">
         <v>2983</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="154">
       <c r="A154" s="1">
         <v>2981</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="155">
       <c r="A155" s="1">
         <v>2956</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="156">
       <c r="A156" s="1">
         <v>2945</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="157">
       <c r="A157" s="1">
         <v>3301</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="158">
       <c r="A158" s="1">
         <v>3484</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="159">
       <c r="A159" s="1">
         <v>3324</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="160">
       <c r="A160" s="1">
         <v>3053</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="161">
       <c r="A161" s="1">
         <v>3131</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="162">
       <c r="A162" s="1">
         <v>2951</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="163">
       <c r="A163" s="1">
         <v>2997</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="164">
       <c r="A164" s="1">
         <v>3056</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="165">
       <c r="A165" s="1">
         <v>3009</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="166">
       <c r="A166" s="1">
         <v>2968</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="167">
       <c r="A167" s="1">
         <v>2932</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="168">
       <c r="A168" s="1">
         <v>3026</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="169">
       <c r="A169" s="1">
         <v>3017</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="170">
       <c r="A170" s="1">
         <v>3481</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="171">
       <c r="A171" s="1">
         <v>3058</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="172">
       <c r="A172" s="1">
         <v>3066</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="173">
       <c r="A173" s="1">
         <v>2975</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="174">
       <c r="A174" s="1">
         <v>2991</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="175">
       <c r="A175" s="1">
         <v>2941</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="176">
       <c r="A176" s="1">
         <v>3050</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="177">
       <c r="A177" s="1">
         <v>2888</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="178">
       <c r="A178" s="1">
         <v>3134</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="179">
       <c r="A179" s="1">
         <v>3339</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="180">
       <c r="A180" s="1">
         <v>3060</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="181">
       <c r="A181" s="1">
         <v>2934</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="182">
       <c r="A182" s="1">
         <v>3088</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="183">
       <c r="A183" s="1">
         <v>3586</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="184">
       <c r="A184" s="1">
         <v>3018</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="185">
       <c r="A185" s="1">
         <v>2936</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="186">
       <c r="A186" s="1">
         <v>3005</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="187">
       <c r="A187" s="1">
         <v>3034</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="188">
       <c r="A188" s="1">
         <v>3069</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="189">
       <c r="A189" s="1">
         <v>3002</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="190">
       <c r="A190" s="1">
         <v>3065</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="191">
       <c r="A191" s="1">
         <v>3320</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="192">
       <c r="A192" s="1">
         <v>3145</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="193">
       <c r="A193" s="1">
         <v>2868</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="194">
       <c r="A194" s="1">
         <v>2976</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="195">
       <c r="A195" s="1">
         <v>2948</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="196">
       <c r="A196" s="1">
         <v>2971</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="197">
       <c r="A197" s="1">
         <v>2896</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="198">
       <c r="A198" s="1">
         <v>3003</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="199">
       <c r="A199" s="1">
         <v>3048</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="200">
       <c r="A200" s="1">
         <v>3063</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="201">
       <c r="A201" s="1">
         <v>3011</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="202">
       <c r="A202" s="1">
         <v>2960</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="203">
       <c r="A203" s="1">
         <v>3677</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="204">
       <c r="A204" s="1">
         <v>3035</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="205">
       <c r="A205" s="1">
         <v>2961</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="206">
       <c r="A206" s="1">
         <v>2940</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="207">
       <c r="A207" s="1">
         <v>3015</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="208">
       <c r="A208" s="1">
         <v>3022</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="209">
       <c r="A209" s="1">
         <v>2999</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="210">
       <c r="A210" s="1">
         <v>2972</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="211">
       <c r="A211" s="1">
         <v>2964</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="212">
       <c r="A212" s="1">
         <v>2897</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="213">
       <c r="A213" s="1">
         <v>2966</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="214">
       <c r="A214" s="1">
         <v>2994</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="215">
       <c r="A215" s="1">
         <v>3566</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="216">
       <c r="A216" s="1">
         <v>3019</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="217">
       <c r="A217" s="1">
         <v>3614</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="218">
       <c r="A218" s="1">
         <v>3040</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="219">
       <c r="A219" s="1">
         <v>2943</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="220">
       <c r="A220" s="1">
         <v>3338</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="221">
       <c r="A221" s="1">
         <v>3554</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="222">
       <c r="A222" s="1">
         <v>2344</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="223">
       <c r="A223" s="1">
         <v>2412</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="224">
       <c r="A224" s="1">
         <v>2408</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="225">
       <c r="A225" s="1">
         <v>3306</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="226">
       <c r="A226" s="1">
         <v>2380</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="227">
       <c r="A227" s="1">
         <v>2470</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="228">
       <c r="A228" s="1">
         <v>2522</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="229">
       <c r="A229" s="1">
         <v>2554</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="230">
       <c r="A230" s="1">
         <v>2435</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="231">
       <c r="A231" s="1">
         <v>2519</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="232">
       <c r="A232" s="1">
         <v>2606</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="233">
       <c r="A233" s="1">
         <v>3695</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="234">
       <c r="A234" s="1">
         <v>2451</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="235">
       <c r="A235" s="1">
         <v>2528</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="236">
       <c r="A236" s="1">
         <v>2426</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="237">
       <c r="A237" s="1">
         <v>2473</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="238">
       <c r="A238" s="1">
         <v>2474</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="239">
       <c r="A239" s="1">
         <v>3344</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="240">
       <c r="A240" s="1">
         <v>2430</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="241">
       <c r="A241" s="1">
         <v>2492</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="242">
       <c r="A242" s="1">
         <v>2438</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="243">
       <c r="A243" s="1">
         <v>2572</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="244">
       <c r="A244" s="1">
         <v>2440</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="245">
       <c r="A245" s="1">
         <v>2551</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="246">
       <c r="A246" s="1">
         <v>2543</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="247">
       <c r="A247" s="1">
         <v>3312</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="248">
       <c r="A248" s="1">
         <v>3466</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="249">
       <c r="A249" s="1">
         <v>2833</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="250">
       <c r="A250" s="1">
         <v>2478</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="251">
       <c r="A251" s="1">
         <v>3590</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="252">
       <c r="A252" s="1">
         <v>2459</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="253">
       <c r="A253" s="1">
         <v>2824</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="254">
       <c r="A254" s="1">
         <v>2481</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="255">
       <c r="A255" s="1">
         <v>2460</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="256">
       <c r="A256" s="1">
         <v>2413</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="257">
       <c r="A257" s="1">
         <v>2420</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="258">
       <c r="A258" s="1">
         <v>2569</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="259">
       <c r="A259" s="1">
         <v>2393</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="260">
       <c r="A260" s="1">
         <v>2431</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="261">
       <c r="A261" s="1">
         <v>2536</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="262">
       <c r="A262" s="1">
         <v>2550</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="263">
       <c r="A263" s="1">
         <v>2334</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="264">
       <c r="A264" s="1">
         <v>2556</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="265">
       <c r="A265" s="1">
         <v>3530</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="266">
       <c r="A266" s="1">
         <v>3593</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="267">
       <c r="A267" s="1">
         <v>2465</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="268">
       <c r="A268" s="1">
         <v>2537</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="269">
       <c r="A269" s="1">
         <v>2417</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="270">
       <c r="A270" s="1">
         <v>2487</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="271">
       <c r="A271" s="1">
         <v>3077</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="272">
       <c r="A272" s="1">
         <v>2445</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="273">
       <c r="A273" s="1">
         <v>2811</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="274">
       <c r="A274" s="1">
         <v>2654</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="275">
       <c r="A275" s="1">
         <v>2535</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="276">
       <c r="A276" s="1">
         <v>2480</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="277">
       <c r="A277" s="1">
         <v>3081</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="278">
       <c r="A278" s="1">
         <v>3205</v>
       </c>
@@ -7972,10 +7972,10 @@
         <v>3</v>
       </c>
       <c r="G278">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="279">
       <c r="A279" s="1">
         <v>2512</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="280">
       <c r="A280" s="1">
         <v>2509</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="281">
       <c r="A281" s="1">
         <v>3485</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="282">
       <c r="A282" s="1">
         <v>2539</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="283">
       <c r="A283" s="1">
         <v>2456</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="284">
       <c r="A284" s="1">
         <v>2496</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="285">
       <c r="A285" s="1">
         <v>2407</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="286">
       <c r="A286" s="1">
         <v>3365</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="287">
       <c r="A287" s="1">
         <v>2549</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="288">
       <c r="A288" s="1">
         <v>2439</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="289">
       <c r="A289" s="1">
         <v>2497</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="290">
       <c r="A290" s="1">
         <v>2416</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="291">
       <c r="A291" s="1">
         <v>2513</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="292">
       <c r="A292" s="1">
         <v>2447</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="293">
       <c r="A293" s="1">
         <v>2643</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="294">
       <c r="A294" s="1">
         <v>2449</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="295">
       <c r="A295" s="1">
         <v>2429</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="296">
       <c r="A296" s="1">
         <v>2588</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="297">
       <c r="A297" s="1">
         <v>2514</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="298">
       <c r="A298" s="1">
         <v>3127</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="299">
       <c r="A299" s="1">
         <v>3140</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="300">
       <c r="A300" s="1">
         <v>2472</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="301">
       <c r="A301" s="1">
         <v>2589</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="302">
       <c r="A302" s="1">
         <v>2517</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="303">
       <c r="A303" s="1">
         <v>3154</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="304">
       <c r="A304" s="1">
         <v>2441</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="305">
       <c r="A305" s="1">
         <v>2524</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="306">
       <c r="A306" s="1">
         <v>2433</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="307">
       <c r="A307" s="1">
         <v>2377</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="308">
       <c r="A308" s="1">
         <v>3147</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="309">
       <c r="A309" s="1">
         <v>2901</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="310">
       <c r="A310" s="1">
         <v>2362</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="311">
       <c r="A311" s="1">
         <v>2341</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="312">
       <c r="A312" s="1">
         <v>3693</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="313">
       <c r="A313" s="1">
         <v>2565</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="314">
       <c r="A314" s="1">
         <v>3587</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="315">
       <c r="A315" s="1">
         <v>2391</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="316">
       <c r="A316" s="1">
         <v>2469</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="317">
       <c r="A317" s="1">
         <v>3366</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="318">
       <c r="A318" s="1">
         <v>2486</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="319">
       <c r="A319" s="1">
         <v>2468</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="320">
       <c r="A320" s="1">
         <v>2461</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="321">
       <c r="A321" s="1">
         <v>2453</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="322">
       <c r="A322" s="1">
         <v>2628</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="323">
       <c r="A323" s="1">
         <v>2541</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="324">
       <c r="A324" s="1">
         <v>3358</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="325">
       <c r="A325" s="1">
         <v>2443</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="326">
       <c r="A326" s="1">
         <v>2444</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="327">
       <c r="A327" s="1">
         <v>2442</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="328">
       <c r="A328" s="1">
         <v>2503</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="329">
       <c r="A329" s="1">
         <v>2421</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="330">
       <c r="A330" s="1">
         <v>2463</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="331">
       <c r="A331" s="1">
         <v>2410</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
+    <row spans="1:7" x14ac:dyDescent="0.4" outlineLevel="0" r="332">
       <c r="A332" s="1">
         <v>2530</v>
       </c>
@@ -9224,10 +9224,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44813A9F-1AF6-4115-BFD6-78585271B9F1}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{44813A9F-1AF6-4115-BFD6-78585271B9F1}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0" rightToLeft="false">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -9238,7 +9238,7 @@
     <col min="4" max="4" width="13.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row spans="1:12" x14ac:dyDescent="0.4" outlineLevel="0" r="1">
       <c r="A1" s="7" t="s">
         <v>351</v>
       </c>
@@ -9274,6 +9274,63 @@
       </c>
       <c r="L1" s="7" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>GCS-9035</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>23-02-2022 16:29:44</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>3205</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>DIYA P R</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>RUBYS</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
       </c>
     </row>
   </sheetData>
